--- a/krilov/files/22/22var17.xlsx
+++ b/krilov/files/22/22var17.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Новая папка\РТТ\1 ЕГЭ\Информатика\2023\От авторов\22\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12336"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -56,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -361,7 +356,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -369,20 +364,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="44.109375" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,7 +388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -403,8 +398,11 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -414,8 +412,11 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -425,8 +426,11 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -436,8 +440,11 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -447,8 +454,11 @@
       <c r="C6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -458,8 +468,11 @@
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -469,8 +482,11 @@
       <c r="C8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -480,8 +496,11 @@
       <c r="C9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -491,8 +510,11 @@
       <c r="C10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -502,8 +524,11 @@
       <c r="C11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -513,8 +538,11 @@
       <c r="C12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -523,6 +551,9 @@
       </c>
       <c r="C13" t="s">
         <v>7</v>
+      </c>
+      <c r="D13">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
